--- a/target/test-classes/excel/SauceLabsCredentials.xlsx
+++ b/target/test-classes/excel/SauceLabsCredentials.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomationFramework\SeleniumAutomation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783CC4C6-6E58-4B44-9662-F13220D46C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62ED6DD-62DC-444B-B3F3-3BB7E828E98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="2412" windowWidth="17280" windowHeight="8964" xr2:uid="{615EA467-9BE3-4B28-955F-7B2C4D6F2B82}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{615EA467-9BE3-4B28-955F-7B2C4D6F2B82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testRunner" sheetId="2" r:id="rId1"/>
+    <sheet name="testData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -63,10 +64,28 @@
     <t>visual_user</t>
   </si>
   <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
+    <t>testName</t>
+  </si>
+  <si>
+    <t>testDescription</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>loginTest</t>
+  </si>
+  <si>
+    <t>To check whether the user can successfully login</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -417,94 +436,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67045772-92C9-4F0C-8AAB-A78F9C9C7655}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023BC8D6-592E-4F39-8322-C4F955DC71A6}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F9F49E-5633-46B3-ACE8-74C00D1275AE}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
